--- a/data/bank_acc/savings_acc_1.xlsx
+++ b/data/bank_acc/savings_acc_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\bank_acc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244A9858-04C0-4A66-8D68-CAC2022D82A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EB4469-8199-4536-885A-0088112FAAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>Instant Cash ISA</t>
   </si>
   <si>
-    <t>interest</t>
+    <t>#interest=1.66</t>
   </si>
 </sst>
 </file>
@@ -361,206 +361,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45292</v>
       </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
       <c r="C2">
-        <v>100</v>
+        <f>(B2*1.66/12)/100</f>
+        <v>0.13833333333333334</v>
       </c>
       <c r="D2">
-        <f>(C2*H2/12)/100</f>
-        <v>0.13833333333333334</v>
-      </c>
-      <c r="E2">
-        <f>C2+D2</f>
+        <f>B2+C2</f>
         <v>100.13833333333334</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45323</v>
       </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
       <c r="C3">
-        <v>100</v>
+        <f>((B3+D2)*1.66/12)/100</f>
+        <v>0.27685802777777779</v>
       </c>
       <c r="D3">
-        <f>((C3+E2)*$H$2/12)/100</f>
-        <v>0.27685802777777779</v>
-      </c>
-      <c r="E3">
-        <f>E2+C3+D3</f>
+        <f>D2+B3+C3</f>
         <v>200.41519136111111</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45352</v>
       </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
       <c r="C4">
-        <v>100</v>
+        <f t="shared" ref="C4:C12" si="0">((B4+D3)*1.66/12)/100</f>
+        <v>0.41557434804953702</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D12" si="0">((C4+E3)*$H$2/12)/100</f>
-        <v>0.41557434804953702</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E12" si="1">E3+C4+D4</f>
+        <f t="shared" ref="D4:D12" si="1">D3+B4+C4</f>
         <v>300.83076570916063</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45383</v>
       </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
       <c r="C5">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0.55448255923100553</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.55448255923100553</v>
-      </c>
-      <c r="E5">
         <f t="shared" si="1"/>
         <v>401.38524826839165</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45413</v>
       </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
       <c r="C6">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0.69358292677127509</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.69358292677127509</v>
-      </c>
-      <c r="E6">
         <f t="shared" si="1"/>
         <v>502.07883119516293</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45444</v>
       </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
       <c r="C7">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0.83287571648664194</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.83287571648664194</v>
-      </c>
-      <c r="E7">
         <f t="shared" si="1"/>
         <v>602.91170691164962</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45474</v>
       </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
       <c r="C8">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0.97236119456111525</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.97236119456111525</v>
-      </c>
-      <c r="E8">
         <f t="shared" si="1"/>
         <v>703.88406810621075</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45505</v>
       </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
       <c r="C9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>1.1120396275469249</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.1120396275469249</v>
-      </c>
-      <c r="E9">
         <f t="shared" si="1"/>
         <v>804.99610773375764</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45536</v>
       </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
       <c r="C10">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>1.2519112823650314</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.2519112823650314</v>
-      </c>
-      <c r="E10">
         <f t="shared" si="1"/>
         <v>906.24801901612273</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45566</v>
       </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
       <c r="C11">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>1.3919764263056364</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1.3919764263056364</v>
-      </c>
-      <c r="E11">
         <f t="shared" si="1"/>
         <v>1007.6399954424284</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45597</v>
       </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
       <c r="C12">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>1.5322353270286921</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1.5322353270286921</v>
-      </c>
-      <c r="E12">
         <f t="shared" si="1"/>
         <v>1109.172230769457</v>
       </c>

--- a/data/bank_acc/savings_acc_1.xlsx
+++ b/data/bank_acc/savings_acc_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EB4469-8199-4536-885A-0088112FAAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9D7B0-8691-4E72-B9C4-D4A1609EA834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Instant Cash ISA</t>
-  </si>
-  <si>
-    <t>#interest=1.66</t>
   </si>
 </sst>
 </file>
@@ -361,18 +358,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E1" sqref="E1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,11 +383,8 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -405,7 +400,7 @@
         <v>100.13833333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45323</v>
       </c>
@@ -421,7 +416,7 @@
         <v>200.41519136111111</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45352</v>
       </c>
@@ -437,7 +432,7 @@
         <v>300.83076570916063</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45383</v>
       </c>
@@ -453,7 +448,7 @@
         <v>401.38524826839165</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45413</v>
       </c>
@@ -469,7 +464,7 @@
         <v>502.07883119516293</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45444</v>
       </c>
@@ -485,7 +480,7 @@
         <v>602.91170691164962</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45474</v>
       </c>
@@ -501,7 +496,7 @@
         <v>703.88406810621075</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45505</v>
       </c>
@@ -517,7 +512,7 @@
         <v>804.99610773375764</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45536</v>
       </c>
@@ -533,7 +528,7 @@
         <v>906.24801901612273</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45566</v>
       </c>
@@ -549,7 +544,7 @@
         <v>1007.6399954424284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45597</v>
       </c>
